--- a/Results/Calculation/lda2vec-partial-ner-glove-money.xlsx
+++ b/Results/Calculation/lda2vec-partial-ner-glove-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="G2">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="H2">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="I2">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -464,10 +464,10 @@
         <v>169</v>
       </c>
       <c r="C3">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>48</v>
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="G4">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="H4">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C5">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D5">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>0.54</v>
       </c>
       <c r="G5">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="H5">
         <v>0.66</v>
       </c>
       <c r="I5">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Calculation/lda2vec-partial-ner-glove-money.xlsx
+++ b/Results/Calculation/lda2vec-partial-ner-glove-money.xlsx
@@ -432,25 +432,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>0.55</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G2">
-        <v>0.75</v>
+        <v>0.7615894039735099</v>
       </c>
       <c r="H2">
-        <v>0.63</v>
+        <v>0.6424581005586593</v>
       </c>
       <c r="I2">
         <v>0.72</v>
@@ -461,25 +461,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>0.8</v>
+        <v>0.8067632850241546</v>
       </c>
       <c r="G3">
-        <v>0.78</v>
+        <v>0.7695852534562212</v>
       </c>
       <c r="H3">
-        <v>0.79</v>
+        <v>0.7877358490566038</v>
       </c>
       <c r="I3">
         <v>0.8100000000000001</v>
@@ -490,25 +490,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>0.67</v>
+        <v>0.6700507614213198</v>
       </c>
       <c r="G4">
-        <v>0.85</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H4">
-        <v>0.75</v>
+        <v>0.7521367521367522</v>
       </c>
       <c r="I4">
         <v>0.8100000000000001</v>
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="G5">
-        <v>0.86</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H5">
-        <v>0.66</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="I5">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
